--- a/langchain/src/openai/modoo/matching_block_data/Modoo_matching_blocks.xlsx
+++ b/langchain/src/openai/modoo/matching_block_data/Modoo_matching_blocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COM\VscodeProject\LLM_RAG_TEST\langchain\src\openai\modoo\matching_block_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C333612D-BE1D-4083-8AA6-DAED9308F6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48352197-4224-406C-B9C2-33E2CD9B613D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A840D17A-F1F4-4053-87B5-54732BB4FD71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A840D17A-F1F4-4053-87B5-54732BB4FD71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>block_id</t>
   </si>
@@ -279,13 +279,6 @@
     <t>{
 "h5_0": "10",
 "h2_0": "15",
-"p_0": "100"
-}</t>
-  </si>
-  <si>
-    <t>{
-"h5_0": "10",
-"h2_0": "15",
 "h4_0": "10",
 "p_0": "100"
 }</t>
@@ -536,6 +529,18 @@
 }
 ]
 }</t>
+  </si>
+  <si>
+    <t>{
+"h5_0": "10",
+"h2_0": "15",
+"p_0": "100"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>h5_h2_p_img*4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -961,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4994A09-5628-4C1B-827A-1AF11AFEE91F}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -1051,7 +1056,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
@@ -1079,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -1093,7 +1098,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -1107,7 +1112,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
@@ -1121,7 +1126,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>25</v>
@@ -1135,7 +1140,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>28</v>
@@ -1149,7 +1154,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>31</v>
@@ -1163,7 +1168,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -1177,7 +1182,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>31</v>
@@ -1191,7 +1196,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -1205,7 +1210,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>34</v>
@@ -1219,7 +1224,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>40</v>
@@ -1233,7 +1238,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>43</v>
@@ -1247,7 +1252,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>46</v>
@@ -1261,7 +1266,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>28</v>
@@ -1275,7 +1280,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>10</v>
@@ -1289,7 +1294,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>10</v>
@@ -1300,10 +1305,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>10</v>
@@ -1317,7 +1322,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>10</v>
@@ -1331,7 +1336,7 @@
         <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
@@ -1339,7 +1344,7 @@
     </row>
     <row r="27" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>57</v>
@@ -1359,7 +1364,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>10</v>
@@ -1373,7 +1378,7 @@
         <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>60</v>
@@ -1401,7 +1406,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>65</v>

--- a/langchain/src/openai/modoo/matching_block_data/Modoo_matching_blocks.xlsx
+++ b/langchain/src/openai/modoo/matching_block_data/Modoo_matching_blocks.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COM\VscodeProject\LLM_RAG_TEST\langchain\src\openai\modoo\matching_block_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COM\VscodeProject\LLM_RAG\langchain\src\openai\modoo\matching_block_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48352197-4224-406C-B9C2-33E2CD9B613D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B01ABF-C4D7-4735-A2B0-A1332CD8C02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A840D17A-F1F4-4053-87B5-54732BB4FD71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="90">
   <si>
     <t>block_id</t>
   </si>
@@ -50,9 +51,6 @@
     <t>B1736486049436679</t>
   </si>
   <si>
-    <t>h5_h2_li(h4+p)*3</t>
-  </si>
-  <si>
     <t>B1739283715149372</t>
   </si>
   <si>
@@ -63,9 +61,6 @@
   </si>
   <si>
     <t>B1739284472023615</t>
-  </si>
-  <si>
-    <t>h5_h2_img*2_p</t>
   </si>
   <si>
     <t>h5_h2_p</t>
@@ -540,6 +535,39 @@
   </si>
   <si>
     <t>h5_h2_p_img*4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>h5_h2_li(h4+p)*3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>h5_h2_img*2_p</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>h5_h2_p_li(img*1+h4+p)*3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"h5_0": "10",
+"h2_0": "15",
+"li_0": [
+{
+"h4_0": "8",
+"p_0": "80"
+},
+{
+"h4_0": "8",
+"p_0": "80"
+},
+{
+"h4_0": "8",
+"p_0": "80"
+}
+]
+}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -964,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4994A09-5628-4C1B-827A-1AF11AFEE91F}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -986,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -997,279 +1025,279 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="294" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="294" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="281.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="281.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="281.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="281.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="281.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="396" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="217.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="281.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="396" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="217.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="294" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="294" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>28</v>
+        <v>69</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1277,41 +1305,41 @@
         <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1322,41 +1350,41 @@
         <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -1364,27 +1392,27 @@
         <v>57</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="179.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
@@ -1392,24 +1420,465 @@
         <v>62</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACD2FCE-20A7-4B88-A937-ECDB2CAFC602}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="4" max="4" width="54.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="230.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="166.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="166.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="319.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="306.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="383.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="383.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="294" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="179.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="230.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
